--- a/results/viz-a2/1-table.xlsx
+++ b/results/viz-a2/1-table.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzlaurer/Dropbox/PhD/Papers/multilingual/multilingual-repo/results/viz-a2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDEBA7-82C2-3347-983B-C38D4B8AEE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC0BF9-6CE7-214D-9A5D-7774F1D7D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="table-1" sheetId="3" r:id="rId1"/>
-    <sheet name="cleaned" sheetId="2" r:id="rId2"/>
-    <sheet name="raw" sheetId="1" r:id="rId3"/>
+    <sheet name="1-table-reordered" sheetId="4" r:id="rId1"/>
+    <sheet name="1-table" sheetId="3" r:id="rId2"/>
+    <sheet name="cleaned" sheetId="2" r:id="rId3"/>
+    <sheet name="raw" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="113">
   <si>
     <t>meta data</t>
   </si>
@@ -334,6 +335,42 @@
   </si>
   <si>
     <t>0,072</t>
+  </si>
+  <si>
+    <t>BERT-base/
+-large</t>
+  </si>
+  <si>
+    <t>Sent.-BERT 
++ Log. Reg.</t>
+  </si>
+  <si>
+    <t>extrapolation
+sample</t>
+  </si>
+  <si>
+    <t>language
+representation</t>
+  </si>
+  <si>
+    <t>F1
+macro</t>
+  </si>
+  <si>
+    <t>average
+p-value</t>
+  </si>
+  <si>
+    <t>average
+correlation</t>
+  </si>
+  <si>
+    <t>training
+languages</t>
+  </si>
+  <si>
+    <t>algorithm
+size</t>
   </si>
 </sst>
 </file>
@@ -708,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -722,12 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,14 +889,32 @@
     <xf numFmtId="0" fontId="4" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,672 +1217,1387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACB3D79-3015-4643-AD04-F7EACCC84B48}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="50"/>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="50"/>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.253</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.122</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.154</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F24" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4">
+        <v>-0.08</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E20:E22 E26 E2:E18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G24 G2:G18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H25 H2:H18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2596A042-EA31-2A43-A3B5-6A94B2E1FDF7}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="39" t="s">
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="43" t="s">
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="11" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="50" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1846,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9979CE80-D154-0B40-B318-3B015B08B207}">
   <dimension ref="A1:U85"/>
   <sheetViews>
@@ -1928,10 +2692,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1993,8 +2757,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2054,8 +2818,8 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2879,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
@@ -2176,8 +2940,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2237,8 +3001,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2298,8 +3062,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +3123,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +3184,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2481,8 +3245,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2544,8 +3308,8 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
@@ -2605,8 +3369,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
@@ -2666,8 +3430,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
@@ -2727,8 +3491,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2788,8 +3552,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2849,8 +3613,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
@@ -2910,8 +3674,8 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2971,8 +3735,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
@@ -3032,8 +3796,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3095,8 +3859,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3156,8 +3920,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3217,8 +3981,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
@@ -3278,8 +4042,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3339,8 +4103,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3400,8 +4164,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="3"/>
@@ -3447,8 +4211,8 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
@@ -3492,8 +4256,8 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
@@ -3602,10 +4366,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="55" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3667,8 +4431,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
@@ -3728,8 +4492,8 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
@@ -3789,8 +4553,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
@@ -3850,8 +4614,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -3911,8 +4675,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
@@ -3972,8 +4736,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="3" t="s">
         <v>28</v>
       </c>
@@ -4033,8 +4797,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
@@ -4094,8 +4858,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
@@ -4155,8 +4919,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -4218,8 +4982,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
@@ -4279,8 +5043,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
@@ -4340,8 +5104,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="3" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +5165,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
@@ -4462,8 +5226,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
@@ -4523,8 +5287,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
@@ -4584,8 +5348,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="3" t="s">
         <v>28</v>
       </c>
@@ -4645,8 +5409,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="3" t="s">
         <v>28</v>
       </c>
@@ -4706,8 +5470,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4769,8 +5533,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="3" t="s">
         <v>28</v>
       </c>
@@ -4830,8 +5594,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
@@ -4891,8 +5655,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
@@ -4952,8 +5716,8 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="3" t="s">
         <v>28</v>
       </c>
@@ -5013,8 +5777,8 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
@@ -5074,8 +5838,8 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="3"/>
@@ -5121,8 +5885,8 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="5" t="s">
@@ -5166,8 +5930,8 @@
       <c r="U57" s="4"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="5" t="s">
@@ -5211,111 +5975,111 @@
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="2"/>
     </row>
   </sheetData>
@@ -5416,7 +6180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U109"/>
   <sheetViews>
@@ -5498,10 +6262,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5563,8 +6327,8 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
@@ -5624,8 +6388,8 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
@@ -5685,8 +6449,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5746,8 +6510,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
@@ -5807,8 +6571,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
@@ -5868,8 +6632,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5929,8 +6693,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -5990,8 +6754,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
@@ -6051,8 +6815,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -6114,8 +6878,8 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
@@ -6175,8 +6939,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
@@ -6236,8 +7000,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
@@ -6297,8 +7061,8 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
@@ -6358,8 +7122,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
@@ -6419,8 +7183,8 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
@@ -6480,8 +7244,8 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
@@ -6541,8 +7305,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
@@ -6602,8 +7366,8 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -6665,8 +7429,8 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
@@ -6726,8 +7490,8 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
@@ -6787,8 +7551,8 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
@@ -6848,8 +7612,8 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
@@ -6909,8 +7673,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -6970,8 +7734,8 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="4"/>
@@ -7017,8 +7781,8 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
@@ -7062,8 +7826,8 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
@@ -7107,10 +7871,10 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="55" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -7172,8 +7936,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
@@ -7233,8 +7997,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
@@ -7294,8 +8058,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
@@ -7355,8 +8119,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
@@ -7416,8 +8180,8 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
@@ -7477,8 +8241,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="4" t="s">
         <v>28</v>
       </c>
@@ -7538,8 +8302,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="4" t="s">
         <v>28</v>
       </c>
@@ -7599,8 +8363,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
@@ -7660,8 +8424,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -7723,8 +8487,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
@@ -7784,8 +8548,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="4" t="s">
         <v>23</v>
       </c>
@@ -7845,8 +8609,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
@@ -7906,8 +8670,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="4" t="s">
         <v>23</v>
       </c>
@@ -7967,8 +8731,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
@@ -8028,8 +8792,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="4" t="s">
         <v>23</v>
       </c>
@@ -8089,8 +8853,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="4" t="s">
         <v>28</v>
       </c>
@@ -8150,8 +8914,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="4" t="s">
         <v>28</v>
       </c>
@@ -8211,8 +8975,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -8274,8 +9038,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="4" t="s">
         <v>28</v>
       </c>
@@ -8335,8 +9099,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="4" t="s">
         <v>23</v>
       </c>
@@ -8396,8 +9160,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="4" t="s">
         <v>23</v>
       </c>
@@ -8457,8 +9221,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="4" t="s">
         <v>28</v>
       </c>
@@ -8518,8 +9282,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="4" t="s">
         <v>23</v>
       </c>
@@ -8579,8 +9343,8 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="4"/>
@@ -8626,8 +9390,8 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
@@ -8671,8 +9435,8 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
@@ -8716,7 +9480,7 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -8781,7 +9545,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="2" t="s">
         <v>22</v>
       </c>
@@ -8844,7 +9608,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="2" t="s">
         <v>22</v>
       </c>
@@ -8907,7 +9671,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -8970,7 +9734,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2" t="s">
         <v>22</v>
       </c>
@@ -9033,7 +9797,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
       </c>
@@ -9096,7 +9860,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2" t="s">
         <v>22</v>
       </c>
@@ -9159,7 +9923,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2" t="s">
         <v>22</v>
       </c>
@@ -9222,7 +9986,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2" t="s">
         <v>22</v>
       </c>
@@ -9285,7 +10049,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2" t="s">
         <v>29</v>
       </c>
@@ -9348,7 +10112,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2" t="s">
         <v>29</v>
       </c>
@@ -9411,7 +10175,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2" t="s">
         <v>29</v>
       </c>
@@ -9474,7 +10238,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2" t="s">
         <v>29</v>
       </c>
@@ -9537,7 +10301,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2" t="s">
         <v>29</v>
       </c>
@@ -9600,7 +10364,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2" t="s">
         <v>29</v>
       </c>
@@ -9663,7 +10427,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="2" t="s">
         <v>29</v>
       </c>
@@ -9726,7 +10490,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="2" t="s">
         <v>29</v>
       </c>
@@ -9789,7 +10553,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="2" t="s">
         <v>29</v>
       </c>
@@ -9852,7 +10616,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="2" t="s">
         <v>30</v>
       </c>
@@ -9915,7 +10679,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="2" t="s">
         <v>30</v>
       </c>
@@ -9978,7 +10742,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="2" t="s">
         <v>30</v>
       </c>
@@ -10041,7 +10805,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="2" t="s">
         <v>30</v>
       </c>
@@ -10104,7 +10868,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="2" t="s">
         <v>30</v>
       </c>
@@ -10167,7 +10931,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="2" t="s">
         <v>30</v>
       </c>
@@ -10230,7 +10994,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="2" t="s">
         <v>31</v>
       </c>
@@ -10269,7 +11033,7 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="2" t="s">
         <v>31</v>
       </c>
@@ -10308,7 +11072,7 @@
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="2" t="s">
         <v>31</v>
       </c>
@@ -10347,7 +11111,7 @@
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -10412,7 +11176,7 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="2" t="s">
         <v>22</v>
       </c>
@@ -10475,7 +11239,7 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -10538,7 +11302,7 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="2" t="s">
         <v>22</v>
       </c>
@@ -10601,7 +11365,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="2" t="s">
         <v>22</v>
       </c>
@@ -10664,7 +11428,7 @@
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="2" t="s">
         <v>22</v>
       </c>
@@ -10727,7 +11491,7 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
@@ -10790,7 +11554,7 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="2" t="s">
         <v>22</v>
       </c>
@@ -10853,7 +11617,7 @@
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="2" t="s">
         <v>22</v>
       </c>
@@ -10916,7 +11680,7 @@
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="2" t="s">
         <v>29</v>
       </c>
@@ -10979,7 +11743,7 @@
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -11042,7 +11806,7 @@
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="2" t="s">
         <v>29</v>
       </c>
@@ -11105,7 +11869,7 @@
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="2" t="s">
         <v>29</v>
       </c>
@@ -11168,7 +11932,7 @@
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="2" t="s">
         <v>29</v>
       </c>
@@ -11231,7 +11995,7 @@
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="2" t="s">
         <v>29</v>
       </c>
@@ -11294,7 +12058,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="2" t="s">
         <v>29</v>
       </c>
@@ -11357,7 +12121,7 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="2" t="s">
         <v>29</v>
       </c>
@@ -11420,7 +12184,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="2" t="s">
         <v>29</v>
       </c>
@@ -11483,7 +12247,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="2" t="s">
         <v>30</v>
       </c>
@@ -11546,7 +12310,7 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="2" t="s">
         <v>30</v>
       </c>
@@ -11609,7 +12373,7 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="2" t="s">
         <v>30</v>
       </c>
@@ -11672,7 +12436,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="2" t="s">
         <v>30</v>
       </c>
@@ -11735,7 +12499,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="2" t="s">
         <v>30</v>
       </c>
@@ -11798,7 +12562,7 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="2" t="s">
         <v>30</v>
       </c>
@@ -11861,7 +12625,7 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="2" t="s">
         <v>31</v>
       </c>
@@ -11900,7 +12664,7 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="2" t="s">
         <v>31</v>
       </c>
@@ -11939,7 +12703,7 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="2" t="s">
         <v>31</v>
       </c>
